--- a/data/trans_bre/DC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DC-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 7,57</t>
+          <t>0,06; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,33</t>
+          <t>7,58; 14,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,8</t>
+          <t>3,47; 10,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 24,79</t>
+          <t>15,18; 24,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 30,46</t>
+          <t>-0,02; 29,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,85; 98,59</t>
+          <t>41,55; 102,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 87,36</t>
+          <t>20,84; 87,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,32; 77,43</t>
+          <t>39,24; 76,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,72</t>
+          <t>4,55; 9,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,64</t>
+          <t>6,46; 10,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,28</t>
+          <t>4,43; 8,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 29,39</t>
+          <t>12,93; 28,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,42; 89,02</t>
+          <t>33,73; 89,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,85; 157,85</t>
+          <t>72,95; 158,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,46; 134,18</t>
+          <t>54,7; 129,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,65; 150,05</t>
+          <t>61,69; 144,77</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 11,17</t>
+          <t>2,67; 10,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,94</t>
+          <t>5,68; 13,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,55</t>
+          <t>-0,34; 6,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 21,37</t>
+          <t>12,58; 21,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,99; 125,68</t>
+          <t>18,89; 117,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,58; 372,89</t>
+          <t>80,87; 390,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 111,95</t>
+          <t>-4,42; 117,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,39; 149,42</t>
+          <t>67,03; 150,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,98</t>
+          <t>4,81; 8,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,06</t>
+          <t>8,72; 12,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,09</t>
+          <t>4,75; 8,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 26,01</t>
+          <t>16,24; 25,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 57,15</t>
+          <t>27,46; 55,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,36; 133,66</t>
+          <t>82,82; 135,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,81; 100,62</t>
+          <t>50,25; 100,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,24; 122,28</t>
+          <t>71,03; 121,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DC-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 7,41</t>
+          <t>0,08; 7,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 14,59</t>
+          <t>7,24; 14,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,98</t>
+          <t>3,55; 10,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 29,9</t>
+          <t>0,05; 30,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,55; 102,18</t>
+          <t>39,53; 100,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,84; 87,49</t>
+          <t>22,31; 87,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,71</t>
+          <t>4,71; 9,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,86</t>
+          <t>6,35; 10,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,14</t>
+          <t>4,51; 8,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,73; 89,22</t>
+          <t>36,66; 87,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,95; 158,25</t>
+          <t>71,6; 157,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,7; 129,97</t>
+          <t>57,71; 139,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,78</t>
+          <t>2,6; 11,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,83</t>
+          <t>5,78; 13,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,66</t>
+          <t>-0,41; 6,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 117,54</t>
+          <t>18,99; 130,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>80,87; 390,19</t>
+          <t>83,97; 380,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 117,86</t>
+          <t>-5,54; 117,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,74</t>
+          <t>4,89; 8,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,21</t>
+          <t>8,64; 12,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,07</t>
+          <t>4,93; 8,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,46; 55,47</t>
+          <t>27,87; 56,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,82; 135,38</t>
+          <t>81,66; 133,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,25; 100,18</t>
+          <t>52,07; 100,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/DC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DC-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,63</t>
+          <t>-0,12; 7,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,3</t>
+          <t>7,12; 14,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 10,62</t>
+          <t>3,3; 10,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,18; 24,5</t>
+          <t>15,32; 24,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 30,49</t>
+          <t>-0,44; 30,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,53; 100,16</t>
+          <t>38,85; 98,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,31; 87,7</t>
+          <t>21,27; 87,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,24; 76,61</t>
+          <t>39,32; 77,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,59</t>
+          <t>4,6; 9,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,85</t>
+          <t>6,32; 10,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,42</t>
+          <t>4,54; 8,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 28,0</t>
+          <t>13,42; 29,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,66; 87,11</t>
+          <t>34,42; 89,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,6; 157,72</t>
+          <t>72,85; 157,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,71; 139,56</t>
+          <t>58,46; 134,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,69; 144,77</t>
+          <t>64,65; 150,05</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,31</t>
+          <t>2,63; 11,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 13,65</t>
+          <t>5,68; 13,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,76</t>
+          <t>-0,57; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,37</t>
+          <t>12,34; 21,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,99; 130,85</t>
+          <t>19,99; 125,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,97; 380,13</t>
+          <t>79,58; 372,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 117,62</t>
+          <t>-6,56; 111,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,03; 150,23</t>
+          <t>64,39; 149,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,9</t>
+          <t>5,1; 8,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,18</t>
+          <t>8,75; 12,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,08</t>
+          <t>4,8; 8,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 25,3</t>
+          <t>16,04; 26,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,87; 56,53</t>
+          <t>28,75; 57,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,66; 133,69</t>
+          <t>83,36; 133,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 100,61</t>
+          <t>51,81; 100,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,03; 121,24</t>
+          <t>70,24; 122,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DC-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,24</t>
+          <t>20,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>77,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>68,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>59,97%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 7,57</t>
+          <t>2,84; 10,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,33</t>
+          <t>9,99; 17,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,8</t>
+          <t>6,82; 14,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 24,79</t>
+          <t>15,69; 25,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 30,46</t>
+          <t>9,88; 41,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,85; 98,59</t>
+          <t>50,72; 113,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 87,36</t>
+          <t>40,14; 106,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,32; 77,43</t>
+          <t>41,12; 80,46</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,57</t>
+          <t>23,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>111,46%</t>
+          <t>143,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>107,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>132,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,72</t>
+          <t>8,19; 13,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,64</t>
+          <t>9,24; 13,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,28</t>
+          <t>6,27; 10,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 29,39</t>
+          <t>15,72; 43,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,42; 89,02</t>
+          <t>57,37; 116,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,85; 157,85</t>
+          <t>100,66; 193,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,46; 134,18</t>
+          <t>73,68; 150,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,65; 150,05</t>
+          <t>81,02; 293,28</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,52%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>186,34%</t>
+          <t>268,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>102,18%</t>
+          <t>102,44%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 11,17</t>
+          <t>5,05; 14,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,94</t>
+          <t>9,57; 18,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,55</t>
+          <t>1,08; 8,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 21,37</t>
+          <t>12,11; 21,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,99; 125,68</t>
+          <t>33,63; 133,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,58; 372,89</t>
+          <t>132,14; 496,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 111,95</t>
+          <t>10,74; 138,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,39; 149,42</t>
+          <t>64,31; 150,63</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,97</t>
+          <t>22,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>105,75%</t>
+          <t>130,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,67%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>113,56%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,98</t>
+          <t>8,42; 12,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,06</t>
+          <t>11,83; 15,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,09</t>
+          <t>7,05; 10,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 26,01</t>
+          <t>17,5; 35,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 57,15</t>
+          <t>45,86; 73,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,36; 133,66</t>
+          <t>106,34; 159,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,81; 100,62</t>
+          <t>69,8; 122,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,24; 122,28</t>
+          <t>81,44; 208,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DC-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,6</t>
+          <t>2,77; 10,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 17,5</t>
+          <t>10,03; 17,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 14,8</t>
+          <t>6,69; 14,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 25,12</t>
+          <t>15,75; 25,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 41,44</t>
+          <t>8,94; 40,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,72; 113,53</t>
+          <t>50,92; 112,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,14; 106,61</t>
+          <t>37,37; 104,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,12; 80,46</t>
+          <t>41,8; 80,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,59</t>
+          <t>8,4; 13,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 13,85</t>
+          <t>9,21; 13,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,26</t>
+          <t>6,16; 10,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 43,03</t>
+          <t>15,47; 40,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,37; 116,0</t>
+          <t>59,37; 116,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>100,66; 193,28</t>
+          <t>101,86; 193,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,68; 150,84</t>
+          <t>70,97; 152,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,02; 293,28</t>
+          <t>80,11; 281,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 14,24</t>
+          <t>5,03; 14,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 18,49</t>
+          <t>9,4; 18,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 8,78</t>
+          <t>1,11; 8,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 21,21</t>
+          <t>12,45; 20,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,63; 133,5</t>
+          <t>33,4; 149,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>132,14; 496,72</t>
+          <t>131,13; 530,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,74; 138,86</t>
+          <t>9,11; 134,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,31; 150,63</t>
+          <t>65,11; 146,04</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,36</t>
+          <t>8,35; 12,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,23</t>
+          <t>11,74; 15,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,54</t>
+          <t>7,27; 10,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,5; 35,78</t>
+          <t>17,98; 34,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,86; 73,8</t>
+          <t>45,37; 75,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>106,34; 159,81</t>
+          <t>103,7; 159,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,8; 122,11</t>
+          <t>70,89; 121,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,44; 208,35</t>
+          <t>83,93; 191,21</t>
         </is>
       </c>
     </row>
